--- a/data/mapasEtiquetas.xlsx
+++ b/data/mapasEtiquetas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20820"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D88A20E-9F04-40F3-8B59-9BF6AED7C1BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB32C9EC-A8A3-4929-98A8-257F8C3667D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <t>./data/datosDepSuicidio.xlsx</t>
   </si>
   <si>
-    <t>./plots/MapaSuicidio.png</t>
+    <t>./plots/MapaSuicidio2009-2018.png</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +386,7 @@
     <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/data/mapasEtiquetas.xlsx
+++ b/data/mapasEtiquetas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20820"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB32C9EC-A8A3-4929-98A8-257F8C3667D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FA0CD5-EA0C-4BD4-9F8A-DADFAD6FE57F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>archivoDatos</t>
   </si>
@@ -37,25 +37,139 @@
     <t>autorCreditos</t>
   </si>
   <si>
-    <t>tasaNeta</t>
+    <t>exportFile</t>
+  </si>
+  <si>
+    <t>Tasa ajustada 100.000 hab.</t>
+  </si>
+  <si>
+    <t>Castro-Cely (2022)</t>
+  </si>
+  <si>
+    <t>./plots/MapaDepDepresionPeriodo.png</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>scopeArea</t>
+  </si>
+  <si>
+    <t>departamental</t>
+  </si>
+  <si>
+    <t>./data/BD_DEPARTAMENTAL_15A_POR PERIODO_2009_2018-03-09-22.xlsx</t>
+  </si>
+  <si>
+    <t>TasaAjustada_DepresionTH_TotalPoblacion</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>Tasa de prevalencia de depresión y trastornos del humor en población mayor de 15 años, Colombia 2009-2018</t>
+  </si>
+  <si>
+    <t>0,0.1,200,400,600,800,1000,1200</t>
+  </si>
+  <si>
+    <t>0,1-200,200-400,400-600,600-800,800-1000,1000-1200</t>
+  </si>
+  <si>
+    <t>breaks</t>
+  </si>
+  <si>
+    <t>TasaAjustada_Suicidio_TotalPoblacion</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad por suicidio en población mayor de 15 años, Colombia 2009-2018</t>
+  </si>
+  <si>
+    <t>./plots/MapaDepSuicidioPeriodo.png</t>
+  </si>
+  <si>
+    <t>TasaAjustada_IntentoSuicida_TotalPoblacion</t>
+  </si>
+  <si>
+    <t>Tasa de incidencia de intento de suicidio en población mayor de 15 años, Colombia 2009-2018</t>
+  </si>
+  <si>
+    <t>./plots/MapaDepIntentoPeriodo.png</t>
+  </si>
+  <si>
+    <t>TasaAjustada_IntoxPlaguicidas_TotalPoblacion</t>
+  </si>
+  <si>
+    <t>Tasa de incidencia de intoxicaciones agudas por plaguicidas en población mayor de 15 años, Colombia 2009-2018</t>
+  </si>
+  <si>
+    <t>./plots/MapaDepIntoxicacionPeriodo.png</t>
+  </si>
+  <si>
+    <t>municipal</t>
   </si>
   <si>
     <t>Tasa de mortalidad por suicidio, Colombia 2009-2018</t>
   </si>
   <si>
-    <t>Tasa ajustada 100.000 hab.</t>
-  </si>
-  <si>
-    <t>Castro-Cely (2022)</t>
-  </si>
-  <si>
-    <t>exportFile</t>
-  </si>
-  <si>
-    <t>./data/datosDepSuicidio.xlsx</t>
-  </si>
-  <si>
-    <t>./plots/MapaSuicidio2009-2018.png</t>
+    <t>./plots/MapaMunSuicidioPeriodo.png</t>
+  </si>
+  <si>
+    <t>Tasa de incidencia de intento de suicidio, Colombia 2009-2018</t>
+  </si>
+  <si>
+    <t>./plots/MapaMunIntentoPeriodo.png</t>
+  </si>
+  <si>
+    <t>Tasa de incidencia de intoxicaciones agudas por plaguicidas, Colombia 2009-2018</t>
+  </si>
+  <si>
+    <t>./plots/MapaMunIntoxicacionesPeriodo.png</t>
+  </si>
+  <si>
+    <t>Tasa de prevalencia de depresión y trastornos del humor, Colombia 2009-2018</t>
+  </si>
+  <si>
+    <t>./plots/MapaMunDepresionPeriodo.png</t>
+  </si>
+  <si>
+    <t>0,0.1,5,10,20,30,40</t>
+  </si>
+  <si>
+    <t>0,1-5,5-10,10-20,20-30,30-40</t>
+  </si>
+  <si>
+    <t>0,1-5,5-10,10-15,15-20,20-25</t>
+  </si>
+  <si>
+    <t>0,0.1,5,10,15,20,25</t>
+  </si>
+  <si>
+    <t>0,1-5,5-10,10-20,20-40,40-60,60-80</t>
+  </si>
+  <si>
+    <t>0,0.1,5,10,20,40,60,80</t>
+  </si>
+  <si>
+    <t>0,1-200,200-400,400-600,600-800,800-1000,1000-1200,1200-1500</t>
+  </si>
+  <si>
+    <t>0,0.1,200,400,600,800,1000,1200,1500</t>
+  </si>
+  <si>
+    <t>0,1-5,5-10,10-20,20-30,30-40,40-50</t>
+  </si>
+  <si>
+    <t>0,0.1,5,10,20,30,40,50</t>
+  </si>
+  <si>
+    <t>0,0.1,50,100,200,400,600,800,1000,1200,1500</t>
+  </si>
+  <si>
+    <t>0,0-50,50-100,100-200,200-400,400-600,600-800,800-1000,1000-1200,1200-1500</t>
+  </si>
+  <si>
+    <t>./data/BD_MUNICIPAL_15A_PERIODO_2009_2018-03-09-22.xlsx</t>
   </si>
 </sst>
 </file>
@@ -373,60 +487,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" customWidth="1"/>
+    <col min="9" max="9" width="69.140625" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
